--- a/biology/Zoologie/Anas_theodori/Anas_theodori.xlsx
+++ b/biology/Zoologie/Anas_theodori/Anas_theodori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas theodori est une espèce d'oiseaux de la famille des Anatidés aujourd'hui disparue et autrefois endémique des Mascareignes, dans l'océan Indien.
 Le nom de cet oiseau rend hommage au naturaliste français Théodore Sauzier (1829-1904).
